--- a/Language Takeaway.xlsx
+++ b/Language Takeaway.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr dateCompatibility="0" filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{91D7F05F-AE0D-4803-84A9-CEA3BF34AAD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5F7DBC6E-3336-4378-853B-10E7BFA561BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reading" sheetId="4" r:id="rId1"/>
@@ -10024,7 +10024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10038,6 +10038,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -19149,8 +19150,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC63A21-53B7-4140-B34A-F40A3E82678D}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C85" sqref="B85:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -20089,8 +20090,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8E87B0-6BEF-490A-A649-1B996749F858}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -20213,7 +20214,7 @@
       <c r="A18" s="5" t="s">
         <v>1744</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="13" t="s">
         <v>1741</v>
       </c>
     </row>
@@ -20317,6 +20318,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20324,8 +20326,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D972BBC-4F38-41D2-951C-3B16D50F5423}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
